--- a/venta.xlsx
+++ b/venta.xlsx
@@ -6026,49 +6026,124 @@
       </c>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="7"/>
+      <c r="A715" s="3">
+        <v>46005.0</v>
+      </c>
+      <c r="B715" s="6">
+        <v>3918.0</v>
+      </c>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="7"/>
+      <c r="A716" s="3">
+        <v>46006.0</v>
+      </c>
+      <c r="B716" s="6">
+        <v>1623.16</v>
+      </c>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="7"/>
+      <c r="A717" s="3">
+        <v>46007.0</v>
+      </c>
+      <c r="B717" s="6">
+        <v>1694.0</v>
+      </c>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="7"/>
+      <c r="A718" s="3">
+        <v>46008.0</v>
+      </c>
+      <c r="B718" s="6">
+        <v>1734.86</v>
+      </c>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="7"/>
+      <c r="A719" s="3">
+        <v>46009.0</v>
+      </c>
+      <c r="B719" s="6">
+        <v>2480.07</v>
+      </c>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="7"/>
+      <c r="A720" s="3">
+        <v>46010.0</v>
+      </c>
+      <c r="B720" s="6">
+        <v>4985.73</v>
+      </c>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="7"/>
+      <c r="A721" s="3">
+        <v>46011.0</v>
+      </c>
+      <c r="B721" s="6">
+        <v>5239.63</v>
+      </c>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="7"/>
+      <c r="A722" s="3">
+        <v>46012.0</v>
+      </c>
+      <c r="B722" s="6">
+        <v>4120.41</v>
+      </c>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="7"/>
+      <c r="A723" s="3">
+        <v>46013.0</v>
+      </c>
+      <c r="B723" s="6">
+        <v>2154.0</v>
+      </c>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="7"/>
+      <c r="A724" s="3">
+        <v>46014.0</v>
+      </c>
+      <c r="B724" s="6">
+        <v>3110.14</v>
+      </c>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="7"/>
+      <c r="A725" s="3">
+        <v>46015.0</v>
+      </c>
+      <c r="B725" s="6">
+        <v>1897.24</v>
+      </c>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="7"/>
+      <c r="A726" s="3">
+        <v>46016.0</v>
+      </c>
+      <c r="B726" s="6">
+        <v>3663.66</v>
+      </c>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="7"/>
+      <c r="A727" s="3">
+        <v>46017.0</v>
+      </c>
+      <c r="B727" s="6">
+        <v>4515.16</v>
+      </c>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="7"/>
+      <c r="A728" s="3">
+        <v>46018.0</v>
+      </c>
+      <c r="B728" s="6">
+        <v>4612.12</v>
+      </c>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="7"/>
+      <c r="A729" s="3">
+        <v>46019.0</v>
+      </c>
+      <c r="B729" s="6">
+        <v>4481.09</v>
+      </c>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="B730" s="7"/>

--- a/venta.xlsx
+++ b/venta.xlsx
@@ -6146,27 +6146,63 @@
       </c>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="7"/>
+      <c r="A730" s="3">
+        <v>46020.0</v>
+      </c>
+      <c r="B730" s="6">
+        <v>2561.0</v>
+      </c>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="7"/>
+      <c r="A731" s="3">
+        <v>46021.0</v>
+      </c>
+      <c r="B731" s="6">
+        <v>2776.93</v>
+      </c>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="7"/>
+      <c r="A732" s="3">
+        <v>46022.0</v>
+      </c>
+      <c r="B732" s="6">
+        <v>2626.0</v>
+      </c>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="7"/>
+      <c r="A733" s="3">
+        <v>46023.0</v>
+      </c>
+      <c r="B733" s="6">
+        <v>5206.42</v>
+      </c>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="7"/>
+      <c r="A734" s="3">
+        <v>46024.0</v>
+      </c>
+      <c r="B734" s="6">
+        <v>2996.03</v>
+      </c>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="7"/>
+      <c r="A735" s="3">
+        <v>46025.0</v>
+      </c>
+      <c r="B735" s="6">
+        <v>4261.71</v>
+      </c>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="7"/>
+      <c r="A736" s="3">
+        <v>46026.0</v>
+      </c>
+      <c r="B736" s="6">
+        <v>3392.62</v>
+      </c>
     </row>
     <row r="737" ht="15.75" customHeight="1">
+      <c r="A737" s="3"/>
       <c r="B737" s="7"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
